--- a/downloaded_files/ARCS470_Lecture-35206.xlsx
+++ b/downloaded_files/ARCS470_Lecture-35206.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,15 +85,6 @@
   </x:si>
   <x:si>
     <x:t>Hamza Ahmed Ahmed Fouad Abdelwhab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1170563</x:t>
-  </x:si>
-  <x:si>
-    <x:t>دنيا مجدى سيد احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Donia Magdy Sayed Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1200850</x:t>
@@ -407,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -990,7 +981,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.5105098727</x:v>
+        <x:v>45906.4147916667</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1022,7 +1013,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4147916667</x:v>
+        <x:v>45906.4148073727</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1054,7 +1045,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4148073727</x:v>
+        <x:v>45906.4178362269</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1086,7 +1077,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4178362269</x:v>
+        <x:v>45909.4752583681</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1118,7 +1109,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4752583681</x:v>
+        <x:v>45906.5469863773</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1150,7 +1141,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.5469863773</x:v>
+        <x:v>45906.4145069792</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1182,7 +1173,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4145069792</x:v>
+        <x:v>45906.4157328704</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1214,7 +1205,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4157328704</x:v>
+        <x:v>45906.7060480671</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1246,7 +1237,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.7060480671</x:v>
+        <x:v>45906.4158018171</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1278,7 +1269,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4158018171</x:v>
+        <x:v>45906.6680953356</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1310,7 +1301,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6680953356</x:v>
+        <x:v>45906.4166713773</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1342,7 +1333,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4166713773</x:v>
+        <x:v>45906.6649029745</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1374,7 +1365,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6649029745</x:v>
+        <x:v>45906.5695733449</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1406,7 +1397,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.5695733449</x:v>
+        <x:v>45906.415259375</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1438,7 +1429,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.415259375</x:v>
+        <x:v>45906.6650042477</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1470,7 +1461,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6650042477</x:v>
+        <x:v>45906.4153039352</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1502,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4153039352</x:v>
+        <x:v>45906.4146457176</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4146457176</x:v>
+        <x:v>45906.4144680556</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4144680556</x:v>
+        <x:v>45906.4145706019</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1598,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4145706019</x:v>
+        <x:v>45906.6666998495</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1630,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6666998495</x:v>
+        <x:v>45906.4147784722</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1662,7 +1653,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4147784722</x:v>
+        <x:v>45906.4146188657</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1679,38 +1670,6 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45906.4146188657</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/ARCS470_Lecture-35206.xlsx
+++ b/downloaded_files/ARCS470_Lecture-35206.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -247,6 +247,15 @@
   </x:si>
   <x:si>
     <x:t>Hana Mamdouh Gaber Abdo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210324</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يارا رفاعي ربيع رفاعي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yara Refaee Rabea Refaee</x:t>
   </x:si>
   <x:si>
     <x:t>1210325</x:t>
@@ -398,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -708,7 +717,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="35.400625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="51.310625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1557,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4145706019</x:v>
+        <x:v>45927.4253345255</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6666998495</x:v>
+        <x:v>45906.4145706019</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1621,7 +1630,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4147784722</x:v>
+        <x:v>45906.6666998495</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1653,7 +1662,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4146188657</x:v>
+        <x:v>45906.4147784722</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1670,6 +1679,38 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45906.4146188657</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/ARCS470_Lecture-35206.xlsx
+++ b/downloaded_files/ARCS470_Lecture-35206.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -78,6 +78,15 @@
     <x:t>Ahmed Mohammed Mohammed Ayyad</x:t>
   </x:si>
   <x:si>
+    <x:t>1210211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>تسنيم ايمن احمد فوده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tasneem ayman ahmed abdulbaki fouda</x:t>
+  </x:si>
+  <x:si>
     <x:t>1200405</x:t>
   </x:si>
   <x:si>
@@ -150,6 +159,15 @@
     <x:t>Mohamed Ayman abdullah Zidan</x:t>
   </x:si>
   <x:si>
+    <x:t>1200437</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد كمال عبد الجواد عبد الجواد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed kamal Abdelgawad Abdelgawad</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210293</x:t>
   </x:si>
   <x:si>
@@ -193,6 +211,15 @@
   </x:si>
   <x:si>
     <x:t>Mai Ahmed Abdel-Aziz Abou-Hagar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مى عبد الحكيم ابراهيم احمد منصور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>May Abdelhakim Ibrahim Ahmed Mansour</x:t>
   </x:si>
   <x:si>
     <x:t>1210418</x:t>
@@ -407,7 +434,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +734,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -958,7 +985,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4144105671</x:v>
+        <x:v>45930.3774885417</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -990,7 +1017,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4147916667</x:v>
+        <x:v>45906.4144105671</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1022,7 +1049,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4148073727</x:v>
+        <x:v>45906.4147916667</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1054,7 +1081,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4178362269</x:v>
+        <x:v>45906.4148073727</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1086,7 +1113,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4752583681</x:v>
+        <x:v>45906.4178362269</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1118,7 +1145,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.5469863773</x:v>
+        <x:v>45909.4752583681</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1150,7 +1177,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4145069792</x:v>
+        <x:v>45906.5469863773</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1182,7 +1209,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4157328704</x:v>
+        <x:v>45906.4145069792</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1214,7 +1241,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.7060480671</x:v>
+        <x:v>45906.4157328704</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1246,7 +1273,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4158018171</x:v>
+        <x:v>45930.3774885417</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1278,7 +1305,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6680953356</x:v>
+        <x:v>45906.7060480671</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1310,7 +1337,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4166713773</x:v>
+        <x:v>45906.4158018171</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1342,7 +1369,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6649029745</x:v>
+        <x:v>45906.6680953356</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1374,7 +1401,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.5695733449</x:v>
+        <x:v>45906.4166713773</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1406,7 +1433,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.415259375</x:v>
+        <x:v>45906.6649029745</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1438,7 +1465,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6650042477</x:v>
+        <x:v>45930.3774885417</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1470,7 +1497,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4153039352</x:v>
+        <x:v>45906.5695733449</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1502,7 +1529,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4146457176</x:v>
+        <x:v>45906.415259375</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1561,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4144680556</x:v>
+        <x:v>45906.6650042477</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,7 +1593,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.4253345255</x:v>
+        <x:v>45906.4153039352</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1598,7 +1625,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4145706019</x:v>
+        <x:v>45906.4146457176</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1630,7 +1657,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6666998495</x:v>
+        <x:v>45906.4144680556</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1662,7 +1689,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4147784722</x:v>
+        <x:v>45927.4253345255</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1694,7 +1721,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4146188657</x:v>
+        <x:v>45906.4145706019</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1711,6 +1738,102 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45906.6666998495</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45906.4147784722</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45906.4146188657</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/ARCS470_Lecture-35206.xlsx
+++ b/downloaded_files/ARCS470_Lecture-35206.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -211,15 +211,6 @@
   </x:si>
   <x:si>
     <x:t>Mai Ahmed Abdel-Aziz Abou-Hagar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مى عبد الحكيم ابراهيم احمد منصور</x:t>
-  </x:si>
-  <x:si>
-    <x:t>May Abdelhakim Ibrahim Ahmed Mansour</x:t>
   </x:si>
   <x:si>
     <x:t>1210418</x:t>
@@ -434,7 +425,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -734,7 +725,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1465,7 +1456,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45930.3774885417</x:v>
+        <x:v>45906.5695733449</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1497,7 +1488,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.5695733449</x:v>
+        <x:v>45906.415259375</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1529,7 +1520,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.415259375</x:v>
+        <x:v>45906.6650042477</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1561,7 +1552,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6650042477</x:v>
+        <x:v>45906.4153039352</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1593,7 +1584,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4153039352</x:v>
+        <x:v>45906.4146457176</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1625,7 +1616,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4146457176</x:v>
+        <x:v>45906.4144680556</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1657,7 +1648,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4144680556</x:v>
+        <x:v>45927.4253345255</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1689,7 +1680,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.4253345255</x:v>
+        <x:v>45906.4145706019</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1721,7 +1712,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4145706019</x:v>
+        <x:v>45906.6666998495</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1753,7 +1744,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6666998495</x:v>
+        <x:v>45906.4147784722</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1785,7 +1776,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4147784722</x:v>
+        <x:v>45906.4146188657</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1802,38 +1793,6 @@
       <x:c r="R32" s="2" t="s"/>
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:20">
-      <x:c r="A33" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="E33" s="3">
-        <x:v>45906.4146188657</x:v>
-      </x:c>
-      <x:c r="F33" s="2" t="s"/>
-      <x:c r="G33" s="2" t="s"/>
-      <x:c r="H33" s="2" t="s"/>
-      <x:c r="I33" s="2" t="s"/>
-      <x:c r="J33" s="2" t="s"/>
-      <x:c r="K33" s="2" t="s"/>
-      <x:c r="L33" s="2" t="s"/>
-      <x:c r="M33" s="2" t="s"/>
-      <x:c r="N33" s="2" t="s"/>
-      <x:c r="O33" s="2" t="s"/>
-      <x:c r="P33" s="2" t="s"/>
-      <x:c r="Q33" s="2" t="s"/>
-      <x:c r="R33" s="2" t="s"/>
-      <x:c r="S33" s="2" t="s"/>
-      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/ARCS470_Lecture-35206.xlsx
+++ b/downloaded_files/ARCS470_Lecture-35206.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -105,6 +105,15 @@
     <x:t>Rana sherif said eletriby</x:t>
   </x:si>
   <x:si>
+    <x:t>4210192</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رنا محمد فايد عبدالمنعم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rana Mohamed Fayed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210139</x:t>
   </x:si>
   <x:si>
@@ -132,6 +141,15 @@
     <x:t>Omer ahmed mostafa mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1210278</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كارين وجدى الفريد صليب حنا</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karen Wagdy Alfried Saleeb</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210281</x:t>
   </x:si>
   <x:si>
@@ -229,6 +247,15 @@
   </x:si>
   <x:si>
     <x:t>Nour Sherif Ismail Mohamed Abdel-Samie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210320</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نوران أيمن أحمد عبد المقصود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nouran Ayman Ahmed AbdElMaksoud</x:t>
   </x:si>
   <x:si>
     <x:t>1210382</x:t>
@@ -425,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -725,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1072,7 +1099,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4148073727</x:v>
+        <x:v>45938.6296944444</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1104,7 +1131,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4178362269</x:v>
+        <x:v>45906.4148073727</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1136,7 +1163,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4752583681</x:v>
+        <x:v>45906.4178362269</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1168,7 +1195,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.5469863773</x:v>
+        <x:v>45909.4752583681</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1200,7 +1227,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4145069792</x:v>
+        <x:v>45938.6056826736</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1232,7 +1259,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4157328704</x:v>
+        <x:v>45906.5469863773</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1264,7 +1291,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45930.3774885417</x:v>
+        <x:v>45906.4145069792</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1296,7 +1323,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.7060480671</x:v>
+        <x:v>45906.4157328704</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1328,7 +1355,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4158018171</x:v>
+        <x:v>45930.3774885417</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1360,7 +1387,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6680953356</x:v>
+        <x:v>45906.7060480671</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1392,7 +1419,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4166713773</x:v>
+        <x:v>45906.4158018171</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1424,7 +1451,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6649029745</x:v>
+        <x:v>45906.6680953356</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1456,7 +1483,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.5695733449</x:v>
+        <x:v>45906.4166713773</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1488,7 +1515,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.415259375</x:v>
+        <x:v>45906.6649029745</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1520,7 +1547,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6650042477</x:v>
+        <x:v>45906.5695733449</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1552,7 +1579,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4153039352</x:v>
+        <x:v>45906.415259375</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1584,7 +1611,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4146457176</x:v>
+        <x:v>45938.6052998032</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1616,7 +1643,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4144680556</x:v>
+        <x:v>45906.6650042477</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1648,7 +1675,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.4253345255</x:v>
+        <x:v>45906.4153039352</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1680,7 +1707,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4145706019</x:v>
+        <x:v>45906.4146457176</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1712,7 +1739,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6666998495</x:v>
+        <x:v>45906.4144680556</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1744,7 +1771,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4147784722</x:v>
+        <x:v>45927.4253345255</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1776,7 +1803,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4146188657</x:v>
+        <x:v>45906.4145706019</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1794,6 +1821,102 @@
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
     </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45906.6666998495</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45906.4147784722</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45906.4146188657</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1806,6 +1929,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Thesis Writing for GP (ARCS470) Location : [204071]20407 A -60-الجيزة الرئيسي Time : Sunday(18:19)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>
